--- a/__repository/template/temp_sitebinder.xlsx
+++ b/__repository/template/temp_sitebinder.xlsx
@@ -288,12 +288,6 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -301,6 +295,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
@@ -603,185 +603,185 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
-    <row r="5" spans="1:55" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:55" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="T5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="U5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="V5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="W5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="X5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Y5" s="4" t="s">
+      <c r="Y5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z5" s="4" t="s">
+      <c r="Z5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AA5" s="4" t="s">
+      <c r="AA5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AB5" s="4" t="s">
+      <c r="AB5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AC5" s="4" t="s">
+      <c r="AC5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AD5" s="4" t="s">
+      <c r="AD5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AE5" s="4" t="s">
+      <c r="AE5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AF5" s="4" t="s">
+      <c r="AF5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AG5" s="4" t="s">
+      <c r="AG5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AH5" s="4" t="s">
+      <c r="AH5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AI5" s="4" t="s">
+      <c r="AI5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AJ5" s="4" t="s">
+      <c r="AJ5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AK5" s="4" t="s">
+      <c r="AK5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AL5" s="4" t="s">
+      <c r="AL5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AM5" s="4" t="s">
+      <c r="AM5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AN5" s="4" t="s">
+      <c r="AN5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AO5" s="4" t="s">
+      <c r="AO5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AP5" s="4" t="s">
+      <c r="AP5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AQ5" s="4" t="s">
+      <c r="AQ5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AR5" s="4" t="s">
+      <c r="AR5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AS5" s="4" t="s">
+      <c r="AS5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AT5" s="4" t="s">
+      <c r="AT5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AU5" s="4" t="s">
+      <c r="AU5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AV5" s="4" t="s">
+      <c r="AV5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AW5" s="4" t="s">
+      <c r="AW5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AX5" s="4" t="s">
+      <c r="AX5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AY5" s="4" t="s">
+      <c r="AY5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AZ5" s="4" t="s">
+      <c r="AZ5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BA5" s="4" t="s">
+      <c r="BA5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BB5" s="3" t="s">
+      <c r="BB5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BC5" s="3" t="s">
+      <c r="BC5" s="1" t="s">
         <v>55</v>
       </c>
     </row>

--- a/__repository/template/temp_sitebinder.xlsx
+++ b/__repository/template/temp_sitebinder.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="62">
   <si>
     <t>TEMPLATE UPLOAD SITE BINDER</t>
   </si>
@@ -192,6 +192,24 @@
   </si>
   <si>
     <t>updateat</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>qwert</t>
+  </si>
+  <si>
+    <t>aktif</t>
+  </si>
+  <si>
+    <t>zxcvb</t>
+  </si>
+  <si>
+    <t>asdf</t>
   </si>
 </sst>
 </file>
@@ -286,7 +304,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -301,6 +319,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
@@ -583,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC5"/>
+  <dimension ref="A1:BC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AO11" sqref="AO11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,7 +615,9 @@
     <col min="10" max="15" width="13.28515625" customWidth="1"/>
     <col min="16" max="23" width="14.140625" customWidth="1"/>
     <col min="24" max="24" width="15.5703125" customWidth="1"/>
-    <col min="25" max="49" width="14.140625" customWidth="1"/>
+    <col min="25" max="39" width="14.140625" customWidth="1"/>
+    <col min="40" max="40" width="18.28515625" customWidth="1"/>
+    <col min="41" max="49" width="14.140625" customWidth="1"/>
     <col min="50" max="50" width="19.140625" customWidth="1"/>
     <col min="51" max="51" width="17.7109375" customWidth="1"/>
     <col min="52" max="53" width="14.140625" customWidth="1"/>
@@ -785,6 +806,246 @@
         <v>55</v>
       </c>
     </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="P6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>56</v>
+      </c>
+      <c r="R6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S6" t="s">
+        <v>56</v>
+      </c>
+      <c r="T6" t="s">
+        <v>56</v>
+      </c>
+      <c r="U6" t="s">
+        <v>56</v>
+      </c>
+      <c r="V6" t="s">
+        <v>56</v>
+      </c>
+      <c r="W6" t="s">
+        <v>56</v>
+      </c>
+      <c r="X6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC6" s="6">
+        <v>42694</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE6" s="6">
+        <v>42697</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM6" s="6">
+        <v>42702</v>
+      </c>
+      <c r="AN6" s="6">
+        <v>42703</v>
+      </c>
+      <c r="AO6" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>57</v>
+      </c>
+      <c r="R7" t="s">
+        <v>57</v>
+      </c>
+      <c r="S7" t="s">
+        <v>57</v>
+      </c>
+      <c r="T7" t="s">
+        <v>57</v>
+      </c>
+      <c r="U7" t="s">
+        <v>57</v>
+      </c>
+      <c r="V7" t="s">
+        <v>57</v>
+      </c>
+      <c r="W7" t="s">
+        <v>57</v>
+      </c>
+      <c r="X7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC7" s="6">
+        <v>42695</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE7" s="6">
+        <v>42698</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM7" s="6">
+        <v>42703</v>
+      </c>
+      <c r="AN7" s="6">
+        <v>42704</v>
+      </c>
+      <c r="AO7" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="P8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>58</v>
+      </c>
+      <c r="R8" t="s">
+        <v>58</v>
+      </c>
+      <c r="S8" t="s">
+        <v>58</v>
+      </c>
+      <c r="T8" t="s">
+        <v>58</v>
+      </c>
+      <c r="U8" t="s">
+        <v>58</v>
+      </c>
+      <c r="V8" t="s">
+        <v>58</v>
+      </c>
+      <c r="W8" t="s">
+        <v>58</v>
+      </c>
+      <c r="X8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC8" s="6">
+        <v>42696</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE8" s="6">
+        <v>42699</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM8" s="6">
+        <v>42704</v>
+      </c>
+      <c r="AN8" s="6">
+        <v>42705</v>
+      </c>
+      <c r="AO8" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E2"/>
